--- a/Ochoa Martínez Mayeli 20212.xlsx
+++ b/Ochoa Martínez Mayeli 20212.xlsx
@@ -7086,7 +7086,7 @@
         <v>632</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7150,7 +7150,7 @@
         <v>633</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -7383,7 +7383,7 @@
         <v>561</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7714,7 +7714,7 @@
         <v>772</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8119,7 +8119,7 @@
         <v>867</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9974,6 +9974,9 @@
       <c r="J5" t="s">
         <v>1255</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">

--- a/Ochoa Martínez Mayeli 20212.xlsx
+++ b/Ochoa Martínez Mayeli 20212.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1283">
   <si>
     <t>NC</t>
   </si>
@@ -1338,6 +1338,9 @@
     <t>2721972586</t>
   </si>
   <si>
+    <t>CADEZA</t>
+  </si>
+  <si>
     <t>CONDADO</t>
   </si>
   <si>
@@ -1377,6 +1380,9 @@
     <t>TEZOCO</t>
   </si>
   <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
     <t>GARATE</t>
   </si>
   <si>
@@ -1419,6 +1425,9 @@
     <t>JOSE ANTONIO</t>
   </si>
   <si>
+    <t>IRVING OTTONIEL</t>
+  </si>
+  <si>
     <t>BRAYAN</t>
   </si>
   <si>
@@ -1500,6 +1509,9 @@
     <t>tezocoaguilar06@gmail.com</t>
   </si>
   <si>
+    <t>irving12gallardo@gmail.com</t>
+  </si>
+  <si>
     <t>bcastillorojas981@gmail.com</t>
   </si>
   <si>
@@ -1590,6 +1602,9 @@
     <t>2727843486</t>
   </si>
   <si>
+    <t>2721796968</t>
+  </si>
+  <si>
     <t>5565129100</t>
   </si>
   <si>
@@ -1713,6 +1728,9 @@
     <t>ANTONIO AGUILAR TEXOCO</t>
   </si>
   <si>
+    <t>WENDY ELIZABETH GALLARDO SANDRIA</t>
+  </si>
+  <si>
     <t>JOSÉ EBER CASTILLO MARÍN</t>
   </si>
   <si>
@@ -1800,6 +1818,9 @@
     <t>antonioaguilar0826@gmail.com</t>
   </si>
   <si>
+    <t>wendy27gallardo@gmail.com</t>
+  </si>
+  <si>
     <t>nikolasr848@gmail.com</t>
   </si>
   <si>
@@ -1864,6 +1885,9 @@
   </si>
   <si>
     <t>2721830619</t>
+  </si>
+  <si>
+    <t>2721721543</t>
   </si>
   <si>
     <t>2723563922</t>
@@ -6331,7 +6355,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6389,28 +6413,28 @@
         <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="I2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="J2" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6424,28 +6448,28 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H3" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="I3" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="J3" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6453,69 +6477,63 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>19330051920090</v>
+        <v>19330051920088</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E4" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G4" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H4" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="I4" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="J4" t="s">
-        <v>615</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>19330051920089</v>
+        <v>19330051920090</v>
       </c>
       <c r="B5" t="s">
         <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E5" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H5" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="I5" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6523,34 +6541,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>19330051920092</v>
+        <v>19330051920089</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E6" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H6" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="I6" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="J6" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -6558,325 +6576,325 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19330051920093</v>
+        <v>19330051920092</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
+        <v>530</v>
+      </c>
+      <c r="G7" t="s">
+        <v>530</v>
       </c>
       <c r="H7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="I7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="J7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>19330051920094</v>
+        <v>19330051920093</v>
       </c>
       <c r="B8" t="s">
         <v>440</v>
       </c>
       <c r="C8" t="s">
-        <v>452</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E8" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H8" t="s">
-        <v>567</v>
+        <v>572</v>
+      </c>
+      <c r="I8" t="s">
+        <v>603</v>
       </c>
       <c r="J8" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>19330051920095</v>
+        <v>19330051920094</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>441</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>454</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E9" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
-      </c>
-      <c r="I9" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="J9" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>19330051920097</v>
+        <v>19330051920095</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E10" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F10" t="s">
-        <v>529</v>
-      </c>
-      <c r="G10" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="H10" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="I10" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="J10" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>19330051920098</v>
+        <v>19330051920097</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>442</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>455</v>
       </c>
       <c r="D11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E11" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F11" t="s">
-        <v>530</v>
+        <v>534</v>
+      </c>
+      <c r="G11" t="s">
+        <v>556</v>
       </c>
       <c r="H11" t="s">
-        <v>570</v>
+        <v>575</v>
+      </c>
+      <c r="I11" t="s">
+        <v>605</v>
       </c>
       <c r="J11" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>19330051920099</v>
+        <v>19330051920098</v>
       </c>
       <c r="B12" t="s">
         <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E12" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F12" t="s">
-        <v>531</v>
-      </c>
-      <c r="G12" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="J12" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920100</v>
+        <v>19330051920099</v>
       </c>
       <c r="B13" t="s">
         <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>456</v>
       </c>
       <c r="D13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E13" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F13" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G13" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="H13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I13" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="J13" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920101</v>
+        <v>19330051920100</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E14" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F14" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G14" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H14" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="I14" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="J14" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920102</v>
+        <v>19330051920101</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E15" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F15" t="s">
-        <v>534</v>
+        <v>538</v>
+      </c>
+      <c r="G15" t="s">
+        <v>558</v>
       </c>
       <c r="H15" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="I15" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="J15" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920105</v>
+        <v>19330051920102</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D16" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E16" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F16" t="s">
-        <v>535</v>
-      </c>
-      <c r="G16" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="I16" t="s">
-        <v>505</v>
+        <v>608</v>
       </c>
       <c r="J16" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -6884,69 +6902,69 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>19330051920103</v>
+        <v>19330051920105</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E17" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F17" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G17" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="H17" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="I17" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="J17" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920106</v>
+        <v>19330051920103</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>482</v>
       </c>
       <c r="E18" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F18" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G18" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H18" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="I18" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="J18" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -6954,66 +6972,69 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>19330051920107</v>
+        <v>19330051920106</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>461</v>
       </c>
       <c r="D19" t="s">
-        <v>480</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F19" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G19" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H19" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I19" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="J19" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>19330051920109</v>
+        <v>19330051920107</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E20" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F20" t="s">
-        <v>539</v>
+        <v>543</v>
+      </c>
+      <c r="G20" t="s">
+        <v>561</v>
       </c>
       <c r="H20" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="I20" t="s">
-        <v>509</v>
+        <v>611</v>
       </c>
       <c r="J20" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -7021,34 +7042,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330051920110</v>
+        <v>19330051920109</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E21" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F21" t="s">
-        <v>540</v>
-      </c>
-      <c r="G21" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H21" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="I21" t="s">
-        <v>605</v>
+        <v>513</v>
       </c>
       <c r="J21" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -7056,66 +7074,69 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920112</v>
+        <v>19330051920110</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E22" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F22" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G22" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H22" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="I22" t="s">
-        <v>511</v>
+        <v>612</v>
       </c>
       <c r="J22" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>19330051920001</v>
+        <v>19330051920112</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E23" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F23" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G23" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="H23" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="I23" t="s">
-        <v>606</v>
+        <v>515</v>
+      </c>
+      <c r="J23" t="s">
+        <v>640</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -7123,31 +7144,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>19330051920115</v>
+        <v>19330051920001</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="E24" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F24" t="s">
-        <v>543</v>
+        <v>547</v>
+      </c>
+      <c r="G24" t="s">
+        <v>562</v>
       </c>
       <c r="H24" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="I24" t="s">
-        <v>607</v>
-      </c>
-      <c r="J24" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -7155,136 +7176,133 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>19330051920116</v>
+        <v>19330051920115</v>
       </c>
       <c r="B25" t="s">
         <v>444</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E25" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F25" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H25" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="I25" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="J25" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>19330051920117</v>
+        <v>19330051920116</v>
       </c>
       <c r="B26" t="s">
         <v>445</v>
       </c>
       <c r="C26" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D26" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E26" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F26" t="s">
-        <v>545</v>
-      </c>
-      <c r="G26" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="H26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="I26" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="J26" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>19330051920118</v>
+        <v>19330051920117</v>
       </c>
       <c r="B27" t="s">
         <v>446</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>441</v>
       </c>
       <c r="D27" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E27" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F27" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G27" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H27" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="I27" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="J27" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>19330051920119</v>
+        <v>19330051920118</v>
       </c>
       <c r="B28" t="s">
         <v>447</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E28" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F28" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G28" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="H28" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="I28" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="J28" t="s">
-        <v>547</v>
+        <v>644</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7292,28 +7310,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>19330051920120</v>
+        <v>19330051920119</v>
       </c>
       <c r="B29" t="s">
         <v>448</v>
       </c>
       <c r="C29" t="s">
-        <v>462</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E29" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F29" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="G29" t="s">
+        <v>552</v>
       </c>
       <c r="H29" t="s">
-        <v>588</v>
+        <v>593</v>
+      </c>
+      <c r="I29" t="s">
+        <v>618</v>
       </c>
       <c r="J29" t="s">
-        <v>637</v>
+        <v>552</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -7321,68 +7345,97 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>19330051920121</v>
+        <v>19330051920120</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="C30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D30" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E30" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F30" t="s">
-        <v>549</v>
-      </c>
-      <c r="G30" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H30" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="J30" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
+        <v>19330051920121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>465</v>
+      </c>
+      <c r="D31" t="s">
+        <v>492</v>
+      </c>
+      <c r="E31" t="s">
+        <v>523</v>
+      </c>
+      <c r="F31" t="s">
+        <v>554</v>
+      </c>
+      <c r="G31" t="s">
+        <v>565</v>
+      </c>
+      <c r="H31" t="s">
+        <v>595</v>
+      </c>
+      <c r="J31" t="s">
+        <v>646</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
         <v>19330051920122</v>
       </c>
-      <c r="B31" t="s">
-        <v>449</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>450</v>
+      </c>
+      <c r="C32" t="s">
         <v>208</v>
       </c>
-      <c r="D31" t="s">
-        <v>490</v>
-      </c>
-      <c r="E31" t="s">
-        <v>520</v>
-      </c>
-      <c r="F31" t="s">
-        <v>550</v>
-      </c>
-      <c r="G31" t="s">
-        <v>561</v>
-      </c>
-      <c r="H31" t="s">
-        <v>590</v>
-      </c>
-      <c r="I31" t="s">
-        <v>612</v>
-      </c>
-      <c r="J31" t="s">
-        <v>561</v>
-      </c>
-      <c r="K31">
+      <c r="D32" t="s">
+        <v>493</v>
+      </c>
+      <c r="E32" t="s">
+        <v>524</v>
+      </c>
+      <c r="F32" t="s">
+        <v>555</v>
+      </c>
+      <c r="G32" t="s">
+        <v>566</v>
+      </c>
+      <c r="H32" t="s">
+        <v>596</v>
+      </c>
+      <c r="I32" t="s">
+        <v>619</v>
+      </c>
+      <c r="J32" t="s">
+        <v>566</v>
+      </c>
+      <c r="K32">
         <v>2</v>
       </c>
     </row>
@@ -7448,28 +7501,28 @@
         <v>19330051920148</v>
       </c>
       <c r="B2" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="C2" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D2" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="E2" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="F2" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="H2" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="I2" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="J2" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -7480,31 +7533,31 @@
         <v>19330051920149</v>
       </c>
       <c r="B3" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C3" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="E3" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="F3" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="G3" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="H3" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="I3" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="J3" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -7515,31 +7568,31 @@
         <v>19330051920150</v>
       </c>
       <c r="B4" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="C4" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D4" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="E4" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="F4" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="G4" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="H4" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="I4" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="J4" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -7553,28 +7606,28 @@
         <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D5" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="E5" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="F5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G5" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="H5" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="I5" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="J5" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -7591,25 +7644,25 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="E6" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="F6" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="G6" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="H6" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="I6" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="J6" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -7620,28 +7673,28 @@
         <v>19330051920154</v>
       </c>
       <c r="B7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="E7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="F7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="G7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="H7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -7652,31 +7705,31 @@
         <v>19330051920276</v>
       </c>
       <c r="B8" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="E8" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="F8" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="G8" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="H8" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="I8" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="J8" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -7693,25 +7746,25 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="E9" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F9" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="G9" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="H9" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="I9" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="J9" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -7725,28 +7778,28 @@
         <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D10" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="E10" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="F10" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="G10" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="H10" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="I10" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="J10" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7760,28 +7813,28 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D11" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="E11" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="F11" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="G11" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="H11" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="I11" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="J11" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -7792,28 +7845,28 @@
         <v>19330051920158</v>
       </c>
       <c r="B12" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C12" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="D12" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="E12" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="F12" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="H12" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="I12" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="J12" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -7830,25 +7883,25 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E13" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="F13" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="G13" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="H13" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="I13" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="J13" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -7862,25 +7915,25 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D14" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="E14" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="F14" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="H14" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="I14" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="J14" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7897,25 +7950,25 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="E15" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F15" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="G15" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="H15" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="I15" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="J15" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -7929,25 +7982,25 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="E16" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="F16" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="G16" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="H16" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="J16" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -7958,31 +8011,31 @@
         <v>19330051920162</v>
       </c>
       <c r="B17" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="C17" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E17" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="F17" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="G17" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="H17" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="I17" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="J17" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -7996,25 +8049,25 @@
         <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D18" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="E18" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="F18" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="H18" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="I18" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="J18" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8031,25 +8084,25 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E19" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="F19" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="G19" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="H19" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="I19" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="J19" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -8060,31 +8113,31 @@
         <v>19330051920156</v>
       </c>
       <c r="B20" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="E20" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="F20" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="G20" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="H20" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="I20" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="J20" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8095,28 +8148,28 @@
         <v>19330051920165</v>
       </c>
       <c r="B21" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="C21" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D21" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="E21" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="F21" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="G21" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="H21" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="J21" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -8127,25 +8180,25 @@
         <v>19330051920166</v>
       </c>
       <c r="B22" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="C22" t="s">
         <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="E22" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="F22" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H22" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="I22" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -8156,28 +8209,28 @@
         <v>19330051920168</v>
       </c>
       <c r="B23" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C23" t="s">
         <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="E23" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="F23" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="H23" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="I23" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="J23" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -8188,31 +8241,31 @@
         <v>19330051920170</v>
       </c>
       <c r="B24" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="E24" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="F24" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="G24" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="H24" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="I24" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J24" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8226,28 +8279,28 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D25" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="E25" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="F25" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="G25" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="H25" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="I25" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="J25" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -8261,28 +8314,28 @@
         <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D26" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="E26" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="F26" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="G26" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="H26" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="I26" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="J26" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -8299,22 +8352,22 @@
         <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E27" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="F27" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="H27" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="I27" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="J27" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -8334,22 +8387,22 @@
         <v>223</v>
       </c>
       <c r="E28" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="F28" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="G28" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="H28" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="I28" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="J28" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -8366,25 +8419,25 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="E29" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="F29" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="G29" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="H29" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="I29" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="J29" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -8398,28 +8451,28 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="D30" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="F30" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="G30" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="H30" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="I30" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="J30" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -8436,25 +8489,25 @@
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="E31" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="F31" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="G31" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="H31" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="I31" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="J31" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -8468,28 +8521,28 @@
         <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D32" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="E32" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="F32" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="G32" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="H32" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="I32" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="J32" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -8506,25 +8559,25 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="E33" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="F33" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="G33" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="H33" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="I33" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="J33" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -8538,28 +8591,28 @@
         <v>197</v>
       </c>
       <c r="C34" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D34" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="E34" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="F34" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="G34" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="H34" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="I34" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="J34" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -8573,28 +8626,28 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="D35" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="E35" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="F35" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="G35" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="H35" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="I35" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="J35" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -8611,25 +8664,25 @@
         <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="E36" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="F36" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="G36" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="H36" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="I36" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="J36" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -8697,28 +8750,28 @@
         <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="E2" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F2" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="H2" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="I2" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="J2" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8729,31 +8782,31 @@
         <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="C3" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D3" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="E3" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="F3" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="G3" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="H3" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="I3" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="J3" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8764,31 +8817,31 @@
         <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C4" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="D4" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="E4" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F4" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="G4" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="H4" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="I4" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="J4" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8799,31 +8852,31 @@
         <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="C5" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="D5" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="E5" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F5" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="G5" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="H5" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="I5" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="J5" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8834,7 +8887,7 @@
         <v>19330051920190</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C6" t="s">
         <v>193</v>
@@ -8843,16 +8896,16 @@
         <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F6" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="G6" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="H6" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8869,25 +8922,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="E7" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F7" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="G7" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="H7" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="I7" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="J7" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -8898,28 +8951,28 @@
         <v>19330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C8" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="D8" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="E8" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F8" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="H8" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="I8" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="J8" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8933,25 +8986,25 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="D9" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="E9" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="F9" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="G9" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="H9" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="J9" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -8962,31 +9015,31 @@
         <v>19330051920195</v>
       </c>
       <c r="B10" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C10" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D10" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="E10" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="F10" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="G10" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="H10" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="I10" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="J10" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -9000,28 +9053,28 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="D11" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="E11" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="F11" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="G11" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="H11" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="I11" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="J11" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9032,28 +9085,28 @@
         <v>19330051920196</v>
       </c>
       <c r="B12" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="E12" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="F12" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="H12" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="I12" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="J12" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -9067,28 +9120,28 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="D13" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="E13" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="F13" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="G13" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="H13" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="I13" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="J13" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -9099,31 +9152,31 @@
         <v>19330051920199</v>
       </c>
       <c r="B14" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="C14" t="s">
         <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="E14" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="F14" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="G14" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="H14" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="I14" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="J14" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -9134,31 +9187,31 @@
         <v>19330051920200</v>
       </c>
       <c r="B15" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="C15" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="D15" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="E15" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="F15" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="G15" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="H15" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="I15" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="J15" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9169,31 +9222,31 @@
         <v>19330051920201</v>
       </c>
       <c r="B16" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C16" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="D16" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="E16" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="F16" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="I16" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="J16" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -9204,28 +9257,28 @@
         <v>19330051920202</v>
       </c>
       <c r="B17" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="E17" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="F17" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="G17" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="H17" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="J17" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -9236,28 +9289,28 @@
         <v>19330051920203</v>
       </c>
       <c r="B18" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="C18" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="D18" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="E18" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="F18" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="H18" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="I18" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="J18" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -9271,25 +9324,25 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="D19" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="E19" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="F19" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="H19" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="I19" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="J19" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -9300,31 +9353,31 @@
         <v>19330051920206</v>
       </c>
       <c r="B20" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="C20" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="D20" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="E20" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="F20" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="G20" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="H20" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="I20" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="J20" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9335,28 +9388,28 @@
         <v>19330051920207</v>
       </c>
       <c r="B21" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="E21" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="F21" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="H21" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="I21" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="J21" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -9367,28 +9420,28 @@
         <v>19330051920209</v>
       </c>
       <c r="B22" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="C22" t="s">
         <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="E22" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="F22" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="G22" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="H22" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="J22" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -9399,31 +9452,31 @@
         <v>19330051920211</v>
       </c>
       <c r="B23" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C23" t="s">
         <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="E23" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="F23" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="G23" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="H23" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="I23" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="J23" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9440,25 +9493,25 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="E24" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="F24" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="G24" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="H24" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="I24" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="J24" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -9469,7 +9522,7 @@
         <v>19330051920212</v>
       </c>
       <c r="B25" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -9478,19 +9531,19 @@
         <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="F25" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="H25" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="I25" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="J25" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -9507,25 +9560,25 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E26" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="F26" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="G26" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="H26" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="I26" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="J26" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -9539,28 +9592,28 @@
         <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="D27" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="E27" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="F27" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="G27" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="H27" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="I27" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="J27" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -9574,22 +9627,22 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D28" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="E28" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="F28" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="H28" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="J28" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9600,31 +9653,31 @@
         <v>19330051920218</v>
       </c>
       <c r="B29" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="C29" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="D29" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="E29" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="F29" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="G29" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="H29" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="I29" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="J29" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -9641,19 +9694,19 @@
         <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="E30" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="F30" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="H30" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="J30" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -9664,31 +9717,31 @@
         <v>19330051920439</v>
       </c>
       <c r="B31" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="E31" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="F31" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="G31" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="H31" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="I31" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="J31" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -9705,19 +9758,19 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="E32" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="F32" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="H32" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="J32" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -9728,28 +9781,28 @@
         <v>19330051920221</v>
       </c>
       <c r="B33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C33" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="D33" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="E33" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="F33" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="H33" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="I33" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="J33" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -9760,28 +9813,28 @@
         <v>18330051920351</v>
       </c>
       <c r="B34" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="E34" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="F34" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="H34" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="I34" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="J34" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -9849,28 +9902,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="E2" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="F2" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="G2" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="H2" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="J2" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -9881,31 +9934,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="C3" t="s">
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="E3" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="F3" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
       <c r="G3" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="H3" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="I3" t="s">
-        <v>1234</v>
+        <v>1242</v>
       </c>
       <c r="J3" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9916,31 +9969,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D4" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="E4" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="F4" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="G4" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="H4" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="I4" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
       <c r="J4" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9951,28 +10004,28 @@
         <v>19330051920226</v>
       </c>
       <c r="B5" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="C5" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="D5" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="E5" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="F5" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="H5" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="I5" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="J5" t="s">
-        <v>1255</v>
+        <v>1263</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9983,31 +10036,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="E6" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="F6" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="G6" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="H6" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="I6" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
       <c r="J6" t="s">
-        <v>1256</v>
+        <v>1264</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -10018,31 +10071,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="D7" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="E7" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="F7" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="G7" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
       <c r="H7" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="I7" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="J7" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -10053,31 +10106,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B8" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C8" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="D8" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="E8" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="F8" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="G8" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="H8" t="s">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="I8" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
       <c r="J8" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -10088,31 +10141,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="C9" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="D9" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="E9" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="F9" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="G9" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="H9" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
       <c r="I9" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="J9" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -10123,31 +10176,31 @@
         <v>19330051920232</v>
       </c>
       <c r="B10" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="C10" t="s">
         <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="E10" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="F10" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="G10" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="H10" t="s">
-        <v>1218</v>
+        <v>1226</v>
       </c>
       <c r="I10" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="J10" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10158,31 +10211,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E11" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="F11" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="G11" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="H11" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="I11" t="s">
-        <v>1242</v>
+        <v>1250</v>
       </c>
       <c r="J11" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -10193,31 +10246,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B12" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="C12" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="D12" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="E12" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="F12" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="G12" t="s">
-        <v>1203</v>
+        <v>1211</v>
       </c>
       <c r="H12" t="s">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="I12" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="J12" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -10231,25 +10284,25 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="D13" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="E13" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="F13" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="G13" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="H13" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="J13" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -10260,31 +10313,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B14" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="E14" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="F14" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="G14" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="H14" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
       <c r="I14" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="J14" t="s">
-        <v>1264</v>
+        <v>1272</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -10295,28 +10348,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B15" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="E15" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="F15" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="H15" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="I15" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="J15" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -10327,31 +10380,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B16" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="C16" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D16" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="E16" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="F16" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="G16" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="H16" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="I16" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="J16" t="s">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -10362,31 +10415,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B17" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="C17" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="D17" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="E17" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="F17" t="s">
-        <v>1190</v>
+        <v>1198</v>
       </c>
       <c r="G17" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="H17" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
       <c r="I17" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="J17" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -10397,31 +10450,31 @@
         <v>19330051420227</v>
       </c>
       <c r="B18" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="C18" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="D18" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="E18" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
       <c r="F18" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="G18" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="H18" t="s">
-        <v>1226</v>
+        <v>1234</v>
       </c>
       <c r="I18" t="s">
-        <v>1246</v>
+        <v>1254</v>
       </c>
       <c r="J18" t="s">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -10432,28 +10485,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B19" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="C19" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="D19" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="E19" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="F19" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="H19" t="s">
-        <v>1227</v>
+        <v>1235</v>
       </c>
       <c r="I19" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="J19" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -10464,31 +10517,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="D20" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="E20" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="F20" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="G20" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="H20" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="I20" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="J20" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10499,31 +10552,31 @@
         <v>19330051920239</v>
       </c>
       <c r="B21" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="E21" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="F21" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="G21" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="H21" t="s">
-        <v>1229</v>
+        <v>1237</v>
       </c>
       <c r="I21" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="J21" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10540,25 +10593,25 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="E22" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="F22" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="G22" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="H22" t="s">
-        <v>1230</v>
+        <v>1238</v>
       </c>
       <c r="I22" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="J22" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -10572,25 +10625,25 @@
         <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D23" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="E23" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="F23" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="H23" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="I23" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="J23" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10607,22 +10660,22 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="E24" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="F24" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="G24" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="H24" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="J24" t="s">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -10633,28 +10686,28 @@
         <v>19330051920245</v>
       </c>
       <c r="B25" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="C25" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="D25" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="E25" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="F25" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
       <c r="H25" t="s">
-        <v>1233</v>
+        <v>1241</v>
       </c>
       <c r="I25" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="J25" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="K25">
         <v>2</v>

--- a/Ochoa Martínez Mayeli 20212.xlsx
+++ b/Ochoa Martínez Mayeli 20212.xlsx
@@ -4307,7 +4307,7 @@
         <v>159</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4444,7 +4444,7 @@
         <v>163</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6503,6 +6503,9 @@
       <c r="J4" t="s">
         <v>622</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
@@ -6897,7 +6900,7 @@
         <v>633</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
